--- a/paperwork/poster_graphs.xlsx
+++ b/paperwork/poster_graphs.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homeMac/Documents/School/Grad/Q1/CS229/FinalProject/CS229-final-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiyan/Documents/Github/CS229-final-project/paperwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD892FC-436A-3640-A859-3AF9A8808073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F23512-26F5-0A49-AA22-C1B14D748024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="1920" windowWidth="28040" windowHeight="16420" xr2:uid="{195DDB53-60D0-FF49-861D-68F27B6CD193}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" xr2:uid="{195DDB53-60D0-FF49-861D-68F27B6CD193}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$2:$L$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$2:$M$6</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2008,8 +2003,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7188200" cy="348942"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2232,7 +2227,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2659,7 +2654,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M6"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/paperwork/poster_graphs.xlsx
+++ b/paperwork/poster_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiyan/Documents/Github/CS229-final-project/paperwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F23512-26F5-0A49-AA22-C1B14D748024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8782B-337B-8D47-BEA6-B26E68B4AD54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" xr2:uid="{195DDB53-60D0-FF49-861D-68F27B6CD193}"/>
+    <workbookView xWindow="9900" yWindow="460" windowWidth="33600" windowHeight="19060" xr2:uid="{195DDB53-60D0-FF49-861D-68F27B6CD193}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Method</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>Dandelion</t>
+  </si>
+  <si>
+    <t>Test Acc / Loss</t>
+  </si>
+  <si>
+    <t>Train Acc / Loss</t>
+  </si>
+  <si>
+    <t>Experiment: Alternating "blackout"</t>
+  </si>
+  <si>
+    <t>Experiment: Random 25% "blackout"</t>
+  </si>
+  <si>
+    <t>Experiment: Random 50% "blackout"</t>
+  </si>
+  <si>
+    <t>Experiment: Random 75% "blackout"</t>
   </si>
 </sst>
 </file>
@@ -2651,15 +2669,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713B3C53-9C58-8449-851E-F67F726C8D5A}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="X12" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="28" max="28" width="14.1640625" customWidth="1"/>
+    <col min="29" max="29" width="10" customWidth="1"/>
+    <col min="31" max="31" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2676,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2693,7 +2716,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2710,7 +2733,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2727,7 +2750,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2744,7 +2767,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2761,7 +2784,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2770,6 +2793,36 @@
       </c>
       <c r="C7">
         <v>0.28470000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AC15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AB16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
